--- a/Năm 3/Phương pháp số/PPS.xlsx
+++ b/Năm 3/Phương pháp số/PPS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài liệu học tập\tailieuhoctapTLU\Năm 3\Phương pháp số\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4BAF2C-F017-4A41-B187-CF24CF442F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADC45A5-7570-437C-9EE4-CEB709746C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="13020" xr2:uid="{D4FD16E3-6CE8-459A-8BCC-3BC514B5B945}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{D4FD16E3-6CE8-459A-8BCC-3BC514B5B945}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacobi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
   <si>
     <t>Ma trận C</t>
   </si>
@@ -257,9 +257,6 @@
     <t>a3= d3y(3!h^3)=48/(6*8)=1</t>
   </si>
   <si>
-    <t>p3(x) = a(0) +a1(x-2)+ a2(x-2)(x-4) + a3(x-2)(x-4)(x-6)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">KL da thuc noi suy la…, thay x=11 vào đa thức nội suy thì ta có f(11) </t>
     </r>
@@ -313,12 +310,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>f(x) = x^3 - cos(x) = 0</t>
-  </si>
-  <si>
-    <t>[a, b] = [0.5, 1]</t>
-  </si>
-  <si>
     <t>Tinh nghiem xap xi den x5 va ket luan xem sai so dat duoc la bao nhieu</t>
   </si>
   <si>
@@ -394,9 +385,6 @@
     <t xml:space="preserve">B1: </t>
   </si>
   <si>
-    <t>tsp2= tsp1(p+1) -tsp1/x(p+1)-xp</t>
-  </si>
-  <si>
     <t>tsp4</t>
   </si>
   <si>
@@ -452,9 +440,6 @@
   </si>
   <si>
     <t>Vậy x4= 1.61803 với sai số là 4.1E-22</t>
-  </si>
-  <si>
-    <t>f(x) =sqrt(x+1) -x = 0</t>
   </si>
   <si>
     <r>
@@ -481,27 +466,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">f'(x) = 0.5/sqrt(x+1) -1 </t>
-  </si>
-  <si>
-    <t>|f'(x)| &gt;= |f'(2)|with any x in [1, 2] =&gt; Lấy m = 0.5</t>
-  </si>
-  <si>
-    <t>|f'(x)| &lt;= |f'(1)|with any x in [1, 2] =&gt; Lấy M = 1</t>
-  </si>
-  <si>
-    <t>khoang xet: [1, 2] giai bang phuong phap day cung den x5</t>
-  </si>
-  <si>
     <t>KL: Vậy x5=1.61803</t>
   </si>
   <si>
     <t>Tính tích phân từ 0 đến 1 của f(x)=1/(1+x^2)^2</t>
   </si>
   <si>
-    <t>Ta sẽ tính với h=0.1</t>
-  </si>
-  <si>
     <t>|f''(x)|=|(20x^2-4)/(1+x^2)^4| &lt;24 =M2</t>
   </si>
   <si>
@@ -529,9 +499,6 @@
     <t>z</t>
   </si>
   <si>
-    <t>h(f(x+1),z)</t>
-  </si>
-  <si>
     <t>h =</t>
   </si>
   <si>
@@ -544,9 +511,6 @@
     <t>y(i+1)= y(i) + h*f(xi,yi)</t>
   </si>
   <si>
-    <t>y(i+1)= y(i) + 0.5*(h*f(xi,yi)+h(f((i+1),z))</t>
-  </si>
-  <si>
     <t>k1=h.f(x,y)</t>
   </si>
   <si>
@@ -577,7 +541,58 @@
     <t>k2=hf(x+0.5*h,y+0.5k1)</t>
   </si>
   <si>
-    <t>y'=-xy</t>
+    <t>|f'(x)| &gt;= |f'(1)|with any x in [1, 2] =&gt; Lấy m = 0.5</t>
+  </si>
+  <si>
+    <t>|f'(x)| &lt;= |f'(2)|with any x in [1, 2] =&gt; Lấy M = 1</t>
+  </si>
+  <si>
+    <t>p3(x) = a0 +a1(x-2)+ a2(x-2)(x-4) + a3(x-2)(x-4)(x-6)</t>
+  </si>
+  <si>
+    <t>tsp2= tsp1(p+1) -tsp1(p)/x(p+2)-xp</t>
+  </si>
+  <si>
+    <t>Theo CT hình thang</t>
+  </si>
+  <si>
+    <t>Theo CT Simpson</t>
+  </si>
+  <si>
+    <t>Ta sẽ tính với h =</t>
+  </si>
+  <si>
+    <t>|f4(x)|= |(840x^4-1008x^2+72)/(x^2+1)^6| &lt;= 72 = M4</t>
+  </si>
+  <si>
+    <t>Suy ra |I*-I| &lt;= M4/180*h^4*(b-a)=72/180*0.1^4*1= 4*10^-5</t>
+  </si>
+  <si>
+    <t>Kết luận ta tính được gần đúng dung tích của f(x) trên [0,1] la 0.642698 voi sai so 4*10^-5</t>
+  </si>
+  <si>
+    <t>y(i+1)= y(i) + 0.5*(h*f(xi,yi)+h(f(x(i+1),z))</t>
+  </si>
+  <si>
+    <t>h(f(x(i+1),z)</t>
+  </si>
+  <si>
+    <t>y'=-x+y</t>
+  </si>
+  <si>
+    <t>f(x) =cos(x)-sin(x) = 0</t>
+  </si>
+  <si>
+    <t>khoang xet: [0, 1] giai bang phuong phap day cung den x5</t>
+  </si>
+  <si>
+    <t>f'(x) = -sin(x)-cos(x)</t>
+  </si>
+  <si>
+    <t>f(x) = cos(x)-x = 0</t>
+  </si>
+  <si>
+    <t>[a, b] = [0, 1]</t>
   </si>
 </sst>
 </file>
@@ -587,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,6 +679,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -895,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -948,6 +970,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,6 +981,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,18 +1298,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7324B26B-D57E-4589-A9CA-A61F79F26B0B}">
   <dimension ref="G1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="7:19" ht="15.75" thickBot="1">
-      <c r="K1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="K1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
       <c r="P1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1366,20 +1394,20 @@
       <c r="G9" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
     </row>
     <row r="10" spans="7:19">
       <c r="G10" t="s">
@@ -1597,7 +1625,7 @@
     </row>
     <row r="23" spans="7:15">
       <c r="G23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1614,10 +1642,13 @@
   <dimension ref="C1:N17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:14">
       <c r="I1" s="9" t="s">
@@ -1637,52 +1668,49 @@
         <v>22</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H5" s="10">
-        <v>0.42499999999999999</v>
+        <f>(ABS(J5)+ABS(K5)+ABS(L5))/(1-I5)</f>
+        <v>0.1</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="K5" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-0.125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11"/>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="15.75" thickBot="1">
       <c r="F6" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="10">
-        <f>0.4/(1-0.06)</f>
-        <v>0.42553191489361708</v>
+        <v>87</v>
+      </c>
+      <c r="H6" s="51">
+        <f>1/19</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I6" s="12">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.4</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="11"/>
       <c r="N6" s="1">
-        <v>-1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="15.75" thickBot="1">
@@ -1691,59 +1719,50 @@
       </c>
       <c r="D7" s="23">
         <f>MAX(H5,H6,H7,H8)</f>
-        <v>0.42553191489361708</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H7" s="10">
-        <f>0.05/(1-0.25)</f>
-        <v>6.6666666666666666E-2</v>
+        <f>(ABS(L7))/(1-ABS(I7)-ABS(J7))</f>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
-        <v>0.125</v>
+        <v>-0.125</v>
       </c>
       <c r="J7" s="12">
-        <v>-0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="L7" s="11"/>
       <c r="N7" s="1">
-        <v>1.75</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="13"/>
       <c r="F8" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>-1.2500000000000001E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-6.25E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-0.05</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
+        <f>ABS(L8)/(1-ABS(I8)-ABS(J8)-ABS(K8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="1"/>
       <c r="N8" s="1">
-        <v>1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:14">
@@ -1772,23 +1791,23 @@
       </c>
       <c r="G11">
         <f>$I5*F$11+$J5*F$12+$K5*F$13+$L5*F$14+$N5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="0">$I5*G$11+$J5*G$12+$K5*G$13+$L5*G$14+$N5</f>
-        <v>1.4252343750000001</v>
+        <f>$I5*G$11+$J5*G$12+$K5*G$13+$L5*G$14+$N5</f>
+        <v>1.845</v>
       </c>
       <c r="I11">
         <f>$I5*H$11+$J5*H$12+$K5*H$13+$L5*H$14+$N5</f>
-        <v>1.4170532360839845</v>
+        <v>1.841228125</v>
       </c>
       <c r="J11">
         <f>$I5*I$11+$J5*I$12+$K5*I$13+$L5*I$14+$N5</f>
-        <v>1.4174879161826133</v>
+        <v>1.841138322265625</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11" si="1">$I5*J$11+$J5*J$12+$K5*J$13+$L5*J$14+$N5</f>
-        <v>1.4174807014374537</v>
+        <f>$I5*J$11+$J5*J$12+$K5*J$13+$L5*J$14+$N5</f>
+        <v>1.8411361332238769</v>
       </c>
     </row>
     <row r="12" spans="3:14">
@@ -1797,23 +1816,23 @@
       </c>
       <c r="G12">
         <f>$I6*G$11+$J6*F$12+$K6*F$13+$L6*F$14+$N6</f>
-        <v>-1.3399999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12" si="2">$I6*H$11+$J6*G$12+$K6*G$13+$L6*G$14+$N6</f>
-        <v>-0.82683593749999984</v>
+        <f>$I6*H$11+$J6*G$12+$K6*G$13+$L6*G$14+$N6</f>
+        <v>1.5877187500000001</v>
       </c>
       <c r="I12">
         <f>$I6*I$11+$J6*H$12+$K6*H$13+$L6*H$14+$N6</f>
-        <v>-0.84328138005371089</v>
+        <v>1.5886167773437498</v>
       </c>
       <c r="J12">
         <f>$I6*J$11+$J6*I$12+$K6*I$13+$L6*I$14+$N6</f>
-        <v>-0.84278403181291761</v>
+        <v>1.5886386677612305</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12" si="3">$I6*K$11+$J6*J$12+$K6*J$13+$L6*J$14+$N6</f>
-        <v>-0.84280009330237193</v>
+        <f>$I6*K$11+$J6*J$12+$K6*J$13+$L6*J$14+$N6</f>
+        <v>1.5886391879837876</v>
       </c>
     </row>
     <row r="13" spans="3:14">
@@ -1822,23 +1841,23 @@
       </c>
       <c r="G13">
         <f>$I7*G$11+$J7*G$12+$K7*F$13+$L7*F$14+$N7</f>
-        <v>2.0425</v>
+        <v>0.90937500000000004</v>
       </c>
       <c r="H13">
         <f>$I7*H$11+$J7*H$12+$K7*G$13+$L7*G$14+$N7</f>
-        <v>2.0924650390625001</v>
+        <v>0.93110742187499995</v>
       </c>
       <c r="I13">
         <f>$I7*I$11+$J7*I$12+$K7*H$13+$L7*H$14+$N7</f>
-        <v>2.0915037552398683</v>
+        <v>0.93163503295898442</v>
       </c>
       <c r="J13">
         <f>$I7*J$11+$J7*J$12+$K7*I$13+$L7*I$14+$N7</f>
-        <v>2.0915548301514573</v>
+        <v>0.93164762645187382</v>
       </c>
       <c r="K13">
         <f>$I7*K$11+$J7*K$12+$K7*J$13+$L7*J$14+$N7</f>
-        <v>2.0915539824189007</v>
+        <v>0.93164793259600209</v>
       </c>
     </row>
     <row r="14" spans="3:14">
@@ -1847,23 +1866,23 @@
       </c>
       <c r="G14">
         <f>$I8*G$11+$J8*G$12+$K8*G$13+$L8*F$14+$N8</f>
-        <v>1.219125</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f>$I8*H$11+$J8*H$12+$K8*H$13+$L8*G$14+$N8</f>
-        <v>1.1792385644531249</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f>$I8*I$11+$J8*I$12+$K8*I$13+$L8*H$14+$N8</f>
-        <v>1.1804167330403137</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <f>$I8*J$11+$J8*J$12+$K8*J$13+$L8*I$14+$N8</f>
-        <v>1.1803776615284518</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f>$I8*K$11+$J8*K$12+$K8*K$13+$L8*J$14+$N8</f>
-        <v>1.1803787979424851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:14">
@@ -1872,28 +1891,28 @@
       </c>
       <c r="G15">
         <f>($D$7/(1-$D$7))*MAX(ABS(G11-F11),ABS(G12-F12), ABS(G13-F13), ABS(G14-F14))</f>
-        <v>1.5129629629629633</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:K15" si="4">($D$7/(1-$D$7))*MAX(ABS(H11-G11),ABS(H12-G12), ABS(H13-G13), ABS(H14-G14))</f>
-        <v>0.38012152777777786</v>
+        <f t="shared" ref="H15:K15" si="0">($D$7/(1-$D$7))*MAX(ABS(H11-G11),ABS(H12-G12), ABS(H13-G13), ABS(H14-G14))</f>
+        <v>1.7222222222222226E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
-        <v>1.2181809299045228E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1909722222222007E-4</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>3.6840610429132064E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.9780815972197155E-6</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
-        <v>1.1897399595794125E-5</v>
+        <f t="shared" si="0"/>
+        <v>2.432268608989732E-7</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1906,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798E6C53-450F-4B2C-8055-B8EE55F498D2}">
   <dimension ref="F1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1946,7 +1965,7 @@
     <row r="9" spans="6:15">
       <c r="H9" s="4"/>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1960,13 +1979,13 @@
     </row>
     <row r="11" spans="6:15">
       <c r="H11" s="6" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="N11" s="20"/>
     </row>
     <row r="12" spans="6:15" ht="15.75" thickBot="1">
       <c r="H12" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1977,7 +1996,7 @@
     </row>
     <row r="13" spans="6:15">
       <c r="N13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -2002,19 +2021,19 @@
     </row>
     <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -2025,28 +2044,30 @@
     </row>
     <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <f>G17</f>
+        <v>0.5</v>
       </c>
       <c r="I16">
-        <v>-0.5</v>
+        <f>H17</f>
+        <v>0.25</v>
       </c>
       <c r="J16">
         <f>I17</f>
-        <v>-0.75</v>
+        <v>0.125</v>
       </c>
       <c r="K16">
-        <f>J18</f>
-        <v>0.10745649776397292</v>
+        <f>J17</f>
+        <v>6.25E-2</v>
       </c>
       <c r="L16">
         <f>K17</f>
-        <v>-0.44627175111801354</v>
+        <v>-0.46875</v>
       </c>
     </row>
     <row r="17" spans="6:13">
@@ -2055,94 +2076,94 @@
       </c>
       <c r="G17">
         <f>(G15+G16)/2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H17">
         <f>(H15+H16)/2</f>
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="G17:L17" si="0">(I15+I16)/2</f>
-        <v>-0.75</v>
+        <f>(I15+I16)/2</f>
+        <v>0.125</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>-0.875</v>
+        <f t="shared" ref="I17:K17" si="0">(J15+J16)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>-0.44627175111801354</v>
+        <v>-0.46875</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
-        <v>-0.72313587555900671</v>
+        <f>(L15+L16)/2</f>
+        <v>-0.734375</v>
       </c>
       <c r="M17">
         <f>(L17+L15)/2</f>
-        <v>-0.86156793777950336</v>
+        <v>-0.8671875</v>
       </c>
     </row>
     <row r="18" spans="6:13">
       <c r="F18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G18">
-        <f>SIN(G17)-G17</f>
-        <v>0</v>
+        <f>COS(G17)-G17</f>
+        <v>0.37758256189037276</v>
       </c>
       <c r="H18">
-        <f>SIN(H17)-H17</f>
-        <v>2.0574461395796995E-2</v>
+        <f>COS(H17)-H17</f>
+        <v>0.71891242171064473</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="H18:L18" si="1">SIN(I17)-I17</f>
-        <v>6.8361239976665877E-2</v>
+        <f>COS(I17)-I17</f>
+        <v>0.86719766722932901</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0.10745649776397292</v>
+        <f t="shared" ref="H18:L18" si="1">COS(J17)-J17</f>
+        <v>0.93554751070009912</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>1.4666323104355783E-2</v>
+        <v>1.3608836993669944</v>
       </c>
       <c r="L18">
-        <f>SIN(L17)-L17</f>
-        <v>6.1396880338326576E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4766247254585014</v>
       </c>
     </row>
     <row r="19" spans="6:13">
       <c r="F19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <f>(G17-G15)/2</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:L19" si="2">(H17-H15)/2</f>
-        <v>0.25</v>
+        <f>(H17-H15)/2</f>
+        <v>0.125</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
+        <f t="shared" ref="I19" si="2">(I17-I15)/2</f>
+        <v>6.25E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <f>(J17-J15)/2</f>
+        <v>3.125E-2</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>0.27686412444099323</v>
+        <f>(K17-K15)/2</f>
+        <v>0.265625</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
-        <v>0.13843206222049664</v>
+        <f>(L17-L15)/2</f>
+        <v>0.1328125</v>
       </c>
     </row>
     <row r="21" spans="6:13">
       <c r="F21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2155,12 +2176,12 @@
   <dimension ref="E1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
@@ -2192,7 +2213,7 @@
     <row r="5" spans="5:15">
       <c r="I5" s="4"/>
       <c r="J5" s="5" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -2209,7 +2230,7 @@
     </row>
     <row r="7" spans="5:15">
       <c r="I7" s="6" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2227,24 +2248,24 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="5:15" ht="15.75" thickBot="1">
       <c r="E10" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="5:15">
       <c r="E11" s="18"/>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K11" s="28">
         <v>0.5</v>
@@ -2253,7 +2274,7 @@
     <row r="12" spans="5:15" ht="15.75" thickBot="1">
       <c r="E12" s="18"/>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K12" s="29">
         <v>1</v>
@@ -2261,7 +2282,7 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -2284,53 +2305,54 @@
     </row>
     <row r="14" spans="5:15">
       <c r="F14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:L14" si="0">G16</f>
-        <v>1.6072063586819179</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1.6178712577464662</v>
-      </c>
-      <c r="J14">
+        <f>H16</f>
+        <v>0.7873094038990367</v>
+      </c>
+      <c r="J14" t="e">
         <f>I16</f>
-        <v>1.6180315489506349</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>1.6180339521717155</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>1.6180339882015042</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" ref="H14:L14" si="0">J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="5:15">
       <c r="F15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <f>G16</f>
+        <v>0.76853986434321431</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <f>H16</f>
+        <v>0.7873094038990367</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="5:15">
@@ -2338,57 +2360,57 @@
         <v>11</v>
       </c>
       <c r="G16">
-        <f>(G14*(SQRT(G15+1)-G15)-G15*(SQRT(G14+1)-G14))/((SQRT(G15+1)-G15)-(SQRT(G14+1)-G14))</f>
-        <v>1.6072063586819179</v>
+        <f>(G14*(COS(G15)-SIN(G15))-G15*(COS(G14)-SIN(G14)))/(COS(G15)-SIN(G15)-COS(G14)+SIN(G14))</f>
+        <v>0.76853986434321431</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:L16" si="1">(H14*(SQRT(H15+1)-H15)-H15*(SQRT(H14+1)-H14))/((SQRT(H15+1)-H15)-(SQRT(H14+1)-H14))</f>
-        <v>1.6178712577464662</v>
-      </c>
-      <c r="I16">
+        <f t="shared" ref="H16:L16" si="1">(H14*(COS(H15)-SIN(H15))-H15*(COS(H14)-SIN(H14)))/(COS(H15)-SIN(H15)-COS(H14)+SIN(H14))</f>
+        <v>0.7873094038990367</v>
+      </c>
+      <c r="I16" t="e">
         <f t="shared" si="1"/>
-        <v>1.6180315489506349</v>
-      </c>
-      <c r="J16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" t="e">
         <f t="shared" si="1"/>
-        <v>1.6180339521717155</v>
-      </c>
-      <c r="K16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" t="e">
         <f t="shared" si="1"/>
-        <v>1.6180339882015042</v>
-      </c>
-      <c r="L16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" t="e">
         <f t="shared" si="1"/>
-        <v>1.6180339887416735</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="6:12">
       <c r="F17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G17">
-        <f>SQRT(G16+1)-G16</f>
-        <v>7.4782416911449712E-3</v>
+        <f>COS(G16)-SIN(G16)</f>
+        <v>2.3840105888319085E-2</v>
       </c>
       <c r="H17">
-        <f>SQRT(H16+1)-H16</f>
-        <v>1.1244357640749492E-4</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:L17" si="2">SQRT(I16+1)-I16</f>
-        <v>1.6858596501023726E-6</v>
-      </c>
-      <c r="J17">
+        <f t="shared" ref="H17:L17" si="2">COS(H16)-SIN(H16)</f>
+        <v>-2.7029005927583505E-3</v>
+      </c>
+      <c r="I17" t="e">
         <f t="shared" si="2"/>
-        <v>2.5274900172789216E-8</v>
-      </c>
-      <c r="K17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="e">
         <f t="shared" si="2"/>
-        <v>3.789286662225777E-10</v>
-      </c>
-      <c r="L17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" t="e">
         <f t="shared" si="2"/>
-        <v>5.680789172402001E-12</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="6:12">
@@ -2398,28 +2420,28 @@
       <c r="G18" s="39"/>
       <c r="H18" s="39">
         <f>(($K12-$K11)/$K11)*ABS(H16-G16)</f>
-        <v>1.0664899064548372E-2</v>
-      </c>
-      <c r="I18" s="39">
+        <v>1.876953955582239E-2</v>
+      </c>
+      <c r="I18" s="39" t="e">
         <f t="shared" ref="I18:L18" si="3">(($K12-$K11)/$K11)*ABS(I16-H16)</f>
-        <v>1.6029120416871656E-4</v>
-      </c>
-      <c r="J18" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="39" t="e">
         <f t="shared" si="3"/>
-        <v>2.4032210805824405E-6</v>
-      </c>
-      <c r="K18" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="39" t="e">
         <f t="shared" si="3"/>
-        <v>3.6029788708091814E-8</v>
-      </c>
-      <c r="L18" s="39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="39" t="e">
         <f t="shared" si="3"/>
-        <v>5.4016924266875321E-10</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="6:12">
       <c r="F20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2455,7 @@
   <dimension ref="G1:N16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2442,58 +2464,58 @@
     <row r="2" spans="7:14" ht="15.75" thickBot="1">
       <c r="I2" s="31"/>
       <c r="J2" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="27"/>
     </row>
     <row r="4" spans="7:14">
       <c r="H4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="7:14">
       <c r="J5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="7:14">
       <c r="J6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="7:14">
       <c r="G8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="7:14">
       <c r="H9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="7:14">
       <c r="H10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="7:14" ht="15.75" thickBot="1">
       <c r="G11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="7:14" ht="15.75" thickBot="1">
       <c r="H12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N12" s="30">
         <v>0.3</v>
@@ -2519,36 +2541,36 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="7:14">
       <c r="H15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
-        <f>(1-H15)^(1/4)</f>
-        <v>1</v>
+        <f>COS(H15)</f>
+        <v>0.87758256189037276</v>
       </c>
       <c r="J15">
-        <f>(I15+1)^(1/3)</f>
-        <v>1.2599210498948732</v>
+        <f t="shared" ref="J15:M15" si="0">COS(I15)</f>
+        <v>0.63901249416525918</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:M15" si="0">(J15+1)^(1/3)</f>
-        <v>1.3122938366832888</v>
+        <f t="shared" si="0"/>
+        <v>0.8026851006823349</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>1.3223538191388249</v>
+        <v>0.69477802678800615</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>1.3242687445515779</v>
+        <v>0.76819583128201607</v>
       </c>
       <c r="N15">
-        <f>(M15+1)^(1/3)</f>
-        <v>1.3246326252509202</v>
+        <f t="shared" ref="J15:N15" si="1">(1+M15)^(1/3)</f>
+        <v>1.2092333625348435</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2556,28 +2578,28 @@
         <v>18</v>
       </c>
       <c r="I16">
-        <f>($N12/(1-$N12))*(I15-H15)</f>
-        <v>0.4285714285714286</v>
+        <f>($N12/(1-$N12))*ABS(I15-H15)</f>
+        <v>0.16182109795301691</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:N16" si="1">($N12/(1-$N12))*(J15-I15)</f>
-        <v>0.11139473566923137</v>
+        <f t="shared" ref="J16:N16" si="2">($N12/(1-$N12))*ABS(J15-I15)</f>
+        <v>0.1022443147393344</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>2.2445480052178123E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.0145402793032455E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
-        <v>4.3114210523726047E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.6245888811855179E-2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>8.2068231975131396E-4</v>
+        <f t="shared" si="2"/>
+        <v>3.1464773354575683E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>1.5594887114667166E-4</v>
+        <f t="shared" si="2"/>
+        <v>0.18901608482264035</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2612,7 @@
   <dimension ref="E1:P17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2605,7 +2627,7 @@
     <row r="2" spans="5:16">
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -2624,7 +2646,7 @@
     </row>
     <row r="4" spans="5:16">
       <c r="G4" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -2644,22 +2666,22 @@
     </row>
     <row r="8" spans="5:16" ht="15.75" thickBot="1">
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="5:16">
       <c r="E9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K9" s="32"/>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P9" s="28">
         <v>1</v>
@@ -2667,11 +2689,11 @@
     </row>
     <row r="10" spans="5:16" ht="15.75" thickBot="1">
       <c r="F10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K10" s="32"/>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P10" s="29">
         <v>1</v>
@@ -2679,12 +2701,12 @@
     </row>
     <row r="11" spans="5:16">
       <c r="F11" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="5:16">
       <c r="F12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="5:16">
@@ -2717,7 +2739,7 @@
         <v>0.43359036836349274</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="H15:J15" si="0">H15-((SIN(H15)-H15)/(COS(H15)-1))</f>
+        <f t="shared" ref="I15" si="0">H15-((SIN(H15)-H15)/(COS(H15)-1))</f>
         <v>0.28814840089250121</v>
       </c>
       <c r="J15">
@@ -2748,7 +2770,7 @@
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2761,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D271F494-875D-45D8-8F8F-A6850B3D3DD4}">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2774,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="3:11" ht="18.75">
       <c r="C1" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="3:11">
@@ -2788,22 +2810,22 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:11">
@@ -2832,10 +2854,6 @@
         <f>H4-H3</f>
         <v>24</v>
       </c>
-      <c r="J3">
-        <f>I4-I3</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="3:11">
       <c r="C4">
@@ -2934,7 +2952,7 @@
     </row>
     <row r="10" spans="3:11" ht="18.75">
       <c r="C10" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="3:11">
@@ -2948,22 +2966,22 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>41</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>42</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:11">
@@ -3061,7 +3079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:9">
       <c r="C17">
         <v>5</v>
       </c>
@@ -3080,19 +3098,15 @@
         <v>302</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:J17" si="6">G17-G16</f>
+        <f t="shared" ref="H17:I17" si="6">G17-G16</f>
         <v>108</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+    </row>
+    <row r="20" spans="2:9">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -3109,7 +3123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:9">
       <c r="C21">
         <v>2</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:9">
       <c r="C22">
         <v>4</v>
       </c>
@@ -3143,7 +3157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:9">
       <c r="C23">
         <v>6</v>
       </c>
@@ -3160,7 +3174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:9">
       <c r="C24">
         <v>8</v>
       </c>
@@ -3177,7 +3191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:9">
       <c r="C25">
         <v>10</v>
       </c>
@@ -3191,7 +3205,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:9">
       <c r="C26">
         <v>12</v>
       </c>
@@ -3202,7 +3216,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:9">
       <c r="C27">
         <v>14</v>
       </c>
@@ -3210,15 +3224,15 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:9">
       <c r="B29" s="18">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" s="18">
         <v>2</v>
       </c>
@@ -3227,7 +3241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:9">
       <c r="D32" t="s">
         <v>33</v>
       </c>
@@ -3247,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.75" thickBot="1"/>
@@ -3259,7 +3273,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -3273,7 +3287,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -3287,7 +3301,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -3302,42 +3316,42 @@
         <v>28</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H40" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I40" s="38" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="6"/>
-      <c r="C41" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="D41" s="3">
-        <v>2.5</v>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
       </c>
       <c r="E41" s="3">
         <f>(D42-D41)/(C42-C41)</f>
-        <v>-1.6666666666666667</v>
+        <v>4</v>
       </c>
       <c r="F41" s="3">
         <f>(E42-E41)/(C43-C41)</f>
-        <v>1.0026298487836951</v>
+        <v>-1</v>
       </c>
       <c r="G41" s="3">
         <f>(F42-F41)/(C44-C41)</f>
-        <v>0.70944104474676417</v>
+        <v>-0.5</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3346,19 +3360,19 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="6"/>
-      <c r="C42" s="3">
-        <v>1.56</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1.2</v>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
       </c>
       <c r="E42" s="3">
-        <f>(D43-D42)/(C43-C42)</f>
-        <v>-0.10256410256410239</v>
+        <f t="shared" ref="E42:E46" si="7">(D43-D42)/(C43-C42)</f>
+        <v>2</v>
       </c>
       <c r="F42" s="3">
-        <f>(E43-E42)/(C44-C42)</f>
-        <v>2.6627218934911232</v>
+        <f t="shared" ref="F42:F45" si="8">(E43-E42)/(C44-C42)</f>
+        <v>-2.5</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3368,15 +3382,15 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="6"/>
-      <c r="C43" s="3">
-        <v>2.34</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1.1200000000000001</v>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" ref="E43:E44" si="7">(D44-D43)/(C44-C43)</f>
-        <v>4.0512820512820502</v>
+        <f t="shared" si="7"/>
+        <v>-3</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -3387,11 +3401,11 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="6"/>
-      <c r="C44" s="3">
-        <v>3.12</v>
-      </c>
-      <c r="D44" s="3">
-        <v>4.28</v>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3403,8 +3417,6 @@
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="6"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3415,8 +3427,6 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -3427,8 +3437,6 @@
     </row>
     <row r="47" spans="2:11" ht="15.75" thickBot="1">
       <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -3445,21 +3453,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF31F8F-D57E-4275-8F15-8F6EFA743A6C}">
-  <dimension ref="B6:J25"/>
+  <dimension ref="B6:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:9">
       <c r="D6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -3467,18 +3476,21 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E8" s="39">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75">
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -3486,11 +3498,11 @@
         <v>4</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>1/(C11^2+1)^2</f>
         <v>1</v>
-      </c>
-      <c r="D11">
-        <f>C11*SIN(C11)</f>
-        <v>0.8414709848078965</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -3498,36 +3510,36 @@
     </row>
     <row r="12" spans="2:9">
       <c r="C12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D16" si="0">C12*SIN(C12)</f>
-        <v>1.1184469031606714</v>
+        <f t="shared" ref="D12:D21" si="0">1/(C12^2+1)^2</f>
+        <v>0.25</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I12">
-        <f>E8*(0.5*(D11+D16)+SUM(D12:D15))</f>
-        <v>1.4360705889642611</v>
+        <f>E8*(0.5*(D11+D20)+SUM(D12:D19))</f>
+        <v>0.13975565755801883</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="C13">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.3796296219838442</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="C14">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1.5993177648664083</v>
+        <v>0.01</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -3535,77 +3547,70 @@
     </row>
     <row r="15" spans="2:9">
       <c r="C15">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1.7529257355807513</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="C16">
+        <v>1.25</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.15229030339083879</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>9.4674556213017749E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>6.059171597633136E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.8185948536513634</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D17" s="15">
-        <f t="shared" ref="D17:D21" si="1">1/(1+C17)</f>
-        <v>0.625</v>
-      </c>
-      <c r="F17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="1"/>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="D19" s="20">
-        <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="3:10">
-      <c r="C20" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="20">
-        <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="17">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75">
+      <c r="F22" s="46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -3615,16 +3620,41 @@
     </row>
     <row r="24" spans="3:10">
       <c r="F24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="F25" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J25">
-        <f>(0.1/3)*(D11+D21+4*SUM(D12,D14,D16,D18,D20)+2*SUM(D13,D15,D17,D19))</f>
-        <v>1.0857111744042431</v>
+        <f>(E8/3)*(D11+D21+4*SUM(D12,D14,D16,D18,D20)+2*SUM(D13,D15,D17,D19))</f>
+        <v>0.12469590632982386</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="F27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="F30" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +3668,7 @@
   <dimension ref="D2:U22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3646,7 +3676,7 @@
     <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
     <col min="19" max="19" width="19.85546875" customWidth="1"/>
     <col min="20" max="20" width="14.85546875" customWidth="1"/>
     <col min="21" max="21" width="11.85546875" customWidth="1"/>
@@ -3659,34 +3689,34 @@
         <v>132</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="27">
-        <v>0.12</v>
+        <v>106</v>
+      </c>
+      <c r="K3" s="47">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="4:21" ht="18.75">
-      <c r="D4" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="I4" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="O4" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
+      <c r="D4" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="I4" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="O4" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
     </row>
     <row r="5" spans="4:21">
       <c r="D5" t="s">
@@ -3696,7 +3726,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -3705,13 +3735,13 @@
         <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O5" t="s">
         <v>11</v>
@@ -3720,31 +3750,31 @@
         <v>28</v>
       </c>
       <c r="Q5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="R5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="S5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="T5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="U5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="4:21">
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6">
-        <f>$K$3*(D6*E6)</f>
-        <v>0</v>
+        <f>$K$3*(D6+E6)</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -3754,15 +3784,15 @@
       </c>
       <c r="K6">
         <f>$K$3*((2*I6*J6)/(1+I6^2))</f>
-        <v>0.192</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="L6">
         <f>J6+K6</f>
-        <v>2.1920000000000002</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="M6">
         <f>$K$3*((2*I7*L6)/(1+I7^2))</f>
-        <v>0.20420850277264324</v>
+        <v>0.36022181146025889</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -3772,298 +3802,298 @@
       </c>
       <c r="Q6">
         <f>$K$3*-(O6*P6)</f>
-        <v>-0.24</v>
+        <v>-0.4</v>
       </c>
       <c r="R6">
         <f>P6+0.5*Q6</f>
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
         <f>$K$3*-(O6+0.5*$K$3)*R6</f>
-        <v>-0.23913599999999999</v>
+        <v>-0.39600000000000007</v>
       </c>
       <c r="T6">
         <f>P6 -Q6+2*S6</f>
-        <v>1.7617280000000002</v>
+        <v>1.6079999999999997</v>
       </c>
       <c r="U6">
         <f>$K$3*-(O6+$K$3)*(T6)</f>
-        <v>-0.23677624320000007</v>
+        <v>-0.38591999999999993</v>
       </c>
     </row>
     <row r="7" spans="4:21">
       <c r="D7">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="E7">
         <f>E6+F6</f>
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="F7">
-        <f>$K$3*(D7*E7)</f>
-        <v>2.4E-2</v>
+        <f t="shared" ref="F7:F11" si="0">$K$3*(D7+E7)</f>
+        <v>0.76</v>
       </c>
       <c r="I7">
         <v>2.1</v>
       </c>
       <c r="J7">
         <f>J6+0.5*(K6+M6)</f>
-        <v>2.1981042513863218</v>
+        <v>2.3401109057301293</v>
       </c>
       <c r="K7">
         <f>$K$3*((2*I7*J7)/(1+I7^2))</f>
-        <v>0.20477717979643367</v>
+        <v>0.36334439201724744</v>
       </c>
       <c r="L7">
         <f>J7+K7</f>
-        <v>2.4028814311827555</v>
+        <v>2.7034552977473769</v>
       </c>
       <c r="M7">
         <f>$K$3*((2*I8*L7)/(1+I8^2))</f>
-        <v>0.21724681432611215</v>
+        <v>0.40736997637289241</v>
       </c>
       <c r="O7">
         <v>1.1000000000000001</v>
       </c>
       <c r="P7">
         <f>P6+(1/6)*(Q6+4*S6+U6)</f>
-        <v>1.7611132928</v>
+        <v>1.6050133333333334</v>
       </c>
       <c r="Q7">
         <f>$K$3*-(O7*P7)</f>
-        <v>-0.23246695464959999</v>
+        <v>-0.35310293333333337</v>
       </c>
       <c r="R7">
         <f>P7+0.5*Q7</f>
-        <v>1.6448798154752</v>
+        <v>1.4284618666666666</v>
       </c>
       <c r="S7">
         <f>$K$3*-(O7+0.5*$K$3)*R7</f>
-        <v>-0.22896727031414787</v>
+        <v>-0.34283084800000008</v>
       </c>
       <c r="T7">
         <f>P7 -Q7+2*S7</f>
-        <v>1.5356457068213043</v>
+        <v>1.2724545706666666</v>
       </c>
       <c r="U7">
         <f>$K$3*-(O7+$K$3)*(T7)</f>
-        <v>-0.22481853147863901</v>
+        <v>-0.33083818837333334</v>
       </c>
     </row>
     <row r="8" spans="4:21">
       <c r="D8">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E12" si="0">E7+F7</f>
-        <v>2.024</v>
+        <f>E7+F7</f>
+        <v>3.3600000000000003</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F7:F13" si="1">$K$3*(D8*E8)</f>
-        <v>4.8576000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I8">
         <v>2.2000000000000002</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J12" si="2">J7+0.5*(K7+M7)</f>
-        <v>2.4091162484475945</v>
+        <f t="shared" ref="J8:J12" si="1">J7+0.5*(K7+M7)</f>
+        <v>2.7254680899251991</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K12" si="3">$K$3*((2*I8*J8)/(1+I8^2))</f>
-        <v>0.21781051013361813</v>
+        <f t="shared" ref="K8:K12" si="2">$K$3*((2*I8*J8)/(1+I8^2))</f>
+        <v>0.41068697245448205</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:L12" si="4">J8+K8</f>
-        <v>2.6269267585812126</v>
+        <f t="shared" ref="L8:L12" si="3">J8+K8</f>
+        <v>3.136155062379681</v>
       </c>
       <c r="M8">
         <f>$K$3*((2*I9*L8)/(1+I9^2))</f>
-        <v>0.23053474892477416</v>
+        <v>0.45870630483136837</v>
       </c>
       <c r="O8">
         <v>1.2</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P9" si="5">P7+(1/6)*(Q7+4*S7+U7)</f>
-        <v>1.5322541982358615</v>
+        <f t="shared" ref="P8:P9" si="4">P7+(1/6)*(Q7+4*S7+U7)</f>
+        <v>1.2624692477155557</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8:Q9" si="6">$K$3*-(O8*P8)</f>
-        <v>-0.22064460454596402</v>
+        <f t="shared" ref="Q8:Q9" si="5">$K$3*-(O8*P8)</f>
+        <v>-0.30299261945173339</v>
       </c>
       <c r="R8">
-        <f t="shared" ref="R8:R9" si="7">P8+0.5*Q8</f>
-        <v>1.4219318959628795</v>
+        <f t="shared" ref="R8:R9" si="6">P8+0.5*Q8</f>
+        <v>1.1109729379896889</v>
       </c>
       <c r="S8">
-        <f t="shared" ref="S8:S9" si="8">$K$3*-(O8+0.5*$K$3)*R8</f>
-        <v>-0.21499610266958738</v>
+        <f t="shared" ref="S8:S9" si="7">$K$3*-(O8+0.5*$K$3)*R8</f>
+        <v>-0.28885296387731912</v>
       </c>
       <c r="T8">
-        <f t="shared" ref="T8:T9" si="9">P8 -Q8+2*S8</f>
-        <v>1.3229065974426508</v>
+        <f t="shared" ref="T8:T9" si="8">P8 -Q8+2*S8</f>
+        <v>0.98775593941265083</v>
       </c>
       <c r="U8">
-        <f t="shared" ref="U8:U9" si="10">$K$3*-(O8+$K$3)*(T8)</f>
-        <v>-0.20954840503491587</v>
+        <f t="shared" ref="U8:U9" si="9">$K$3*-(O8+$K$3)*(T8)</f>
+        <v>-0.2765716630355422</v>
       </c>
     </row>
     <row r="9" spans="4:21">
       <c r="D9">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2.0725760000000002</v>
+        <f t="shared" ref="E9:E12" si="10">E8+F8</f>
+        <v>4.3120000000000003</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>7.4612735999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1824000000000001</v>
       </c>
       <c r="I9">
         <v>2.2999999999999998</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
+        <v>3.160164728568124</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>2.6332888779767907</v>
-      </c>
-      <c r="K9">
+        <v>0.46221805250916925</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="3"/>
-        <v>0.23109307800368653</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="4"/>
-        <v>2.8643819559804773</v>
+        <v>3.6223827810772935</v>
       </c>
       <c r="M9">
         <f>$K$3*((2*I10*L9)/(1+I10^2))</f>
-        <v>0.24406568145632471</v>
+        <v>0.5144212233482548</v>
       </c>
       <c r="O9">
         <v>1.3</v>
       </c>
       <c r="P9">
+        <f t="shared" si="4"/>
+        <v>0.97330655804946375</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="5"/>
-        <v>1.3172246281926565</v>
-      </c>
-      <c r="Q9">
+        <v>-0.25305970509286063</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="6"/>
-        <v>-0.20548704199805443</v>
-      </c>
-      <c r="R9">
+        <v>0.84677670550303341</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="7"/>
-        <v>1.2144811071936292</v>
-      </c>
-      <c r="S9">
+        <v>-0.23709747754084937</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="8"/>
-        <v>-0.19820331669400029</v>
-      </c>
-      <c r="T9">
+        <v>0.75217130806062571</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="9"/>
-        <v>1.1263050368027103</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="10"/>
-        <v>-0.19192237827118183</v>
+        <v>-0.22565139241818774</v>
       </c>
     </row>
     <row r="10" spans="4:21">
       <c r="D10">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>2.1471887360000004</v>
+        <f t="shared" si="10"/>
+        <v>5.4944000000000006</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.10306505932800002</v>
+        <f t="shared" si="0"/>
+        <v>1.4588800000000002</v>
       </c>
       <c r="I10">
         <v>2.4</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
+        <v>3.6484843664968363</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
-        <v>2.8708682577067961</v>
-      </c>
-      <c r="K10">
+        <v>0.51812795737233175</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="3"/>
-        <v>0.24461836041998739</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="4"/>
-        <v>3.1154866181267833</v>
+        <v>4.1666123238691677</v>
       </c>
       <c r="M10">
         <f t="shared" ref="M10:M11" si="11">$K$3*((2*I11*L10)/(1+I11^2))</f>
-        <v>0.25783337529325101</v>
+        <v>0.57470514811988516</v>
       </c>
       <c r="O10">
         <v>1.4</v>
       </c>
       <c r="P10">
         <f t="shared" ref="P10:P11" si="12">P9+(1/6)*(Q9+4*S9+U9)</f>
-        <v>1.1188541803517835</v>
+        <v>0.73545639010372277</v>
       </c>
       <c r="Q10">
         <f t="shared" ref="Q10" si="13">$K$3*-(O10*P10)</f>
-        <v>-0.18796750229909961</v>
+        <v>-0.20592778922904237</v>
       </c>
       <c r="R10">
         <f t="shared" ref="R10" si="14">P10+0.5*Q10</f>
-        <v>1.0248704292022337</v>
+        <v>0.63249249548920161</v>
       </c>
       <c r="S10">
         <f t="shared" ref="S10" si="15">$K$3*-(O10+0.5*$K$3)*R10</f>
-        <v>-0.17955729919623134</v>
+        <v>-0.1897477486467605</v>
       </c>
       <c r="T10">
         <f t="shared" ref="T10" si="16">P10 -Q10+2*S10</f>
-        <v>0.94770708425842054</v>
+        <v>0.56188868203924414</v>
       </c>
       <c r="U10">
         <f t="shared" ref="U10" si="17">$K$3*-(O10+$K$3)*(T10)</f>
-        <v>-0.17286177216873591</v>
+        <v>-0.17980437825255813</v>
       </c>
     </row>
     <row r="11" spans="4:21">
       <c r="D11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f>E10+F10</f>
-        <v>2.2502537953280002</v>
+        <v>6.9532800000000012</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.13501522771968</v>
+        <f t="shared" si="0"/>
+        <v>1.7906560000000002</v>
       </c>
       <c r="I11">
         <v>2.5</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
+        <v>4.1949009192429445</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="2"/>
-        <v>3.1220941255634154</v>
-      </c>
-      <c r="K11">
+        <v>0.57860702334385439</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="3"/>
-        <v>0.25838020349490332</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
-        <v>3.3804743290583188</v>
+        <v>4.7735079425867992</v>
       </c>
       <c r="M11">
         <f t="shared" si="11"/>
-        <v>0.27183195635726681</v>
+        <v>0.63974848715080812</v>
       </c>
       <c r="O11">
         <v>1.5</v>
       </c>
       <c r="P11">
         <f t="shared" si="12"/>
-        <v>0.93901110180965675</v>
+        <v>0.54466919642561573</v>
       </c>
     </row>
     <row r="12" spans="4:21">
@@ -4071,31 +4101,31 @@
         <v>0.6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>2.3852690230476803</v>
+        <f t="shared" si="10"/>
+        <v>8.7439360000000015</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.17173936965943298</v>
+        <f t="shared" ref="F8:F13" si="18">$K$3*(D12*E12)</f>
+        <v>1.0492723200000003</v>
       </c>
       <c r="I12">
         <v>2.6</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
+        <v>4.8040786744902757</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="2"/>
-        <v>3.3872002054895005</v>
-      </c>
-      <c r="K12">
+        <v>0.64384559555024312</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="3"/>
-        <v>0.27237280002905256</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
-        <v>3.6595730055185531</v>
+        <v>5.4479242700405184</v>
       </c>
       <c r="M12">
         <f>$K$3*((2*I13*L12)/(1+I13^2))</f>
-        <v>0.28605588752424876</v>
+        <v>0.70974164193531486</v>
       </c>
     </row>
     <row r="13" spans="4:21">
@@ -4104,38 +4134,38 @@
       </c>
       <c r="E13">
         <f>E12+F12</f>
-        <v>2.5570083927071132</v>
+        <v>9.7932083200000015</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0.21478870498739749</v>
+        <f t="shared" si="18"/>
+        <v>1.3710491648000003</v>
       </c>
       <c r="I13">
         <v>2.7</v>
       </c>
       <c r="J13">
         <f>J12+0.5*(K12+M12)</f>
-        <v>3.6664145492661513</v>
+        <v>5.4808722932330545</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="4:21" ht="18.75">
       <c r="D15" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
+        <v>130</v>
+      </c>
+      <c r="O15" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
     </row>
     <row r="16" spans="4:21">
       <c r="O16" t="s">
@@ -4145,16 +4175,16 @@
         <v>28</v>
       </c>
       <c r="Q16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="R16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="S16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="T16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="15:20">
@@ -4165,129 +4195,129 @@
         <v>2</v>
       </c>
       <c r="Q17">
-        <f>$K$3*(-O17*P17)</f>
-        <v>-0.24</v>
+        <f>$K$3*(O17+P17)</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="R17">
-        <f>$K$3*-(O17+0.5*$K$3)*(P17+0.5*Q17)</f>
-        <v>-0.23913599999999999</v>
+        <f>$K$3*(O17+0.5*$K$3+P17+0.5*Q17)</f>
+        <v>0.68000000000000016</v>
       </c>
       <c r="S17">
-        <f>$K$3*-(O17+0.5*$K$3)*(P17+0.5*R17)</f>
-        <v>-0.23919095040000002</v>
+        <f>$K$3*(O17+0.5*$K$3+P17+0.5*R17)</f>
+        <v>0.68800000000000017</v>
       </c>
       <c r="T17">
-        <f>$K$3*-(O17+$K$3)*(P17+S17)</f>
-        <v>-0.23665273626624003</v>
+        <f>$K$3*(O17+$K$3+P17+S17)</f>
+        <v>0.77760000000000007</v>
       </c>
     </row>
     <row r="18" spans="15:20">
       <c r="O18">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P18">
         <f>P17+(1/6)*(Q17+2*R17+2*S17+T17)</f>
-        <v>1.7611155604889599</v>
+        <v>2.6856</v>
       </c>
       <c r="Q18">
-        <f>$K$3*(-O18*P18)</f>
-        <v>-0.23246725398454271</v>
+        <f>$K$3*(O18+P18)</f>
+        <v>0.77712000000000003</v>
       </c>
       <c r="R18">
-        <f t="shared" ref="R18:R21" si="18">$K$3*-(O18+0.5*$K$3)*(P18+0.5*Q18)</f>
-        <v>-0.22896756514273908</v>
+        <f>$K$3*(O18+0.5*$K$3+P18+0.5*Q18)</f>
+        <v>0.87483200000000005</v>
       </c>
       <c r="S18">
-        <f>$K$3*-(O18+0.5*$K$3)*(P18+0.5*R18)</f>
-        <v>-0.22921114348612859</v>
+        <f>$K$3*(O18+0.5*$K$3+P18+0.5*R18)</f>
+        <v>0.88460319999999992</v>
       </c>
       <c r="T18">
-        <f>$K$3*-(O18+$K$3)*(P18+S18)</f>
-        <v>-0.22427080664921456</v>
+        <f>$K$3*(O18+$K$3+P18+S18)</f>
+        <v>0.99404063999999992</v>
       </c>
     </row>
     <row r="19" spans="15:20">
       <c r="O19">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P20" si="19">P18+(1/6)*(Q18+2*R18+2*S18+T18)</f>
-        <v>1.5322663141737112</v>
+        <f t="shared" ref="P19:P21" si="19">P18+(1/6)*(Q18+2*R18+2*S18+T18)</f>
+        <v>3.5672718400000001</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q20" si="20">$K$3*(-O19*P19)</f>
-        <v>-0.22064634924101437</v>
+        <f t="shared" ref="Q19:Q21" si="20">$K$3*(O19+P19)</f>
+        <v>0.99345436800000009</v>
       </c>
       <c r="R19">
-        <f t="shared" si="18"/>
-        <v>-0.21499780270044447</v>
+        <f t="shared" ref="R19:R21" si="21">$K$3*(O19+0.5*$K$3+P19+0.5*Q19)</f>
+        <v>1.1127998048000001</v>
       </c>
       <c r="S19">
-        <f t="shared" ref="S19:S20" si="21">$K$3*-(O19+0.5*$K$3)*(P19+0.5*R19)</f>
-        <v>-0.2154248328189115</v>
+        <f t="shared" ref="S19:S21" si="22">$K$3*(O19+0.5*$K$3+P19+0.5*R19)</f>
+        <v>1.1247343484800001</v>
       </c>
       <c r="T19">
-        <f t="shared" ref="T19:T20" si="22">$K$3*-(O19+$K$3)*(P19+S19)</f>
-        <v>-0.20858769064660027</v>
+        <f t="shared" ref="T19:T21" si="23">$K$3*(O19+$K$3+P19+S19)</f>
+        <v>1.2584012376960001</v>
       </c>
     </row>
     <row r="20" spans="15:20">
       <c r="O20">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="P20">
         <f t="shared" si="19"/>
-        <v>1.31725309568599</v>
+        <v>4.6884258253760001</v>
       </c>
       <c r="Q20">
         <f t="shared" si="20"/>
-        <v>-0.20549148292701444</v>
+        <v>1.2576851650752001</v>
       </c>
       <c r="R20">
-        <f t="shared" si="18"/>
-        <v>-0.19820760020910921</v>
+        <f t="shared" si="21"/>
+        <v>1.4034536815827201</v>
       </c>
       <c r="S20">
-        <f t="shared" si="21"/>
-        <v>-0.19880196503889028</v>
+        <f t="shared" si="22"/>
+        <v>1.4180305332334722</v>
       </c>
       <c r="T20">
-        <f t="shared" si="22"/>
-        <v>-0.19058407266226579</v>
+        <f t="shared" si="23"/>
+        <v>1.5812912717218945</v>
       </c>
     </row>
     <row r="21" spans="15:20">
       <c r="O21">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21" si="23">P20+(1/6)*(Q20+2*R20+2*S20+T20)</f>
-        <v>1.1189039813384434</v>
+        <f t="shared" si="19"/>
+        <v>6.102083303114247</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="24">$K$3*(-O21*P21)</f>
-        <v>-0.18797586886485848</v>
+        <f t="shared" si="20"/>
+        <v>1.5804166606228494</v>
       </c>
       <c r="R21">
-        <f t="shared" si="18"/>
-        <v>-0.17956529141793368</v>
+        <f t="shared" si="21"/>
+        <v>1.7584583266851344</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21" si="25">$K$3*-(O21+0.5*$K$3)*(P21+0.5*R21)</f>
-        <v>-0.1803020580022843</v>
+        <f t="shared" si="22"/>
+        <v>1.7762624932913629</v>
       </c>
       <c r="T21">
-        <f t="shared" ref="T21" si="26">$K$3*-(O21+$K$3)*(P21+S21)</f>
-        <v>-0.17120099081651544</v>
+        <f t="shared" si="23"/>
+        <v>1.975669159281122</v>
       </c>
     </row>
     <row r="22" spans="15:20">
       <c r="O22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <f>P21+(1/6)*(Q21+2*R21+2*S21+T21)</f>
-        <v>0.93908538825147514</v>
+        <v>7.8730045464237408</v>
       </c>
     </row>
   </sheetData>
